--- a/NLSR-topo3.xlsx
+++ b/NLSR-topo3.xlsx
@@ -121,13 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -136,31 +129,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,84 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,31 +296,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,37 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,109 +458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -538,15 +577,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,177 +615,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +786,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1116,7 +1113,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1247,8 +1244,8 @@
         <v>192.168.1.13</v>
       </c>
       <c r="F6" s="3">
-        <f>F2</f>
-        <v>1</v>
+        <f>F11</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1293,8 +1290,8 @@
         <v>192.168.1.17</v>
       </c>
       <c r="F8" s="4">
-        <f>F3</f>
-        <v>50</v>
+        <f>F12</f>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1339,8 +1336,8 @@
         <v>192.168.1.21</v>
       </c>
       <c r="F10" s="5">
-        <f>F4</f>
-        <v>100</v>
+        <f>F13</f>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1360,8 +1357,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="6">
-        <f>F2</f>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1381,8 +1377,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="6">
-        <f>F3</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1402,8 +1397,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="7">
-        <f>F4</f>
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1415,28 +1409,28 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
